--- a/Bài tập dành cho những bạn học lại..xlsx
+++ b/Bài tập dành cho những bạn học lại..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8FD75-E4CE-4687-BEAF-34A0F7E3622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551251A9-F807-4211-8624-A277AE2DDADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ss1_introduction_to_java" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1077,7 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1168,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1369,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
